--- a/Experiments/Figures/heat_map/ccc_pseudo.xlsx
+++ b/Experiments/Figures/heat_map/ccc_pseudo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chan/Documents/GitHub/TAPE/Experiments/Figures/heat_map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254A5297-FA6E-424E-9E0E-3F8B6CF66DA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1725296A-49AB-A84D-8B01-9EB0887A0630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2D517C61-1D6E-6E42-A3AB-D893BDC80C78}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2D517C61-1D6E-6E42-A3AB-D893BDC80C78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -56,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kigney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>liver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +67,10 @@
   </si>
   <si>
     <t>thymus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kidney</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,10 +107,10 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF408080"/>
+      <name val="Courier New"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -468,7 +466,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E1" sqref="E1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -481,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -492,19 +490,19 @@
     </row>
     <row r="2" spans="1:6" ht="23">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="D2" s="2">
+        <v>0.94969236801845403</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.92092351047816101</v>
+      </c>
+      <c r="D2">
+        <v>0.89668941268081814</v>
+      </c>
+      <c r="E2" s="2">
         <v>0.46500000000000002</v>
-      </c>
-      <c r="E2">
-        <v>0.89668941268081814</v>
       </c>
       <c r="F2">
         <v>0.38875267017416698</v>
@@ -512,19 +510,19 @@
     </row>
     <row r="3" spans="1:6" ht="23">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="D3" s="2">
+        <v>0.96600863805406201</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.93199753345424996</v>
+      </c>
+      <c r="D3">
+        <v>0.5624490627562484</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.375</v>
-      </c>
-      <c r="E3">
-        <v>0.5624490627562484</v>
       </c>
       <c r="F3">
         <v>0.52351079020378788</v>
@@ -532,59 +530,55 @@
     </row>
     <row r="4" spans="1:6" ht="23">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.626</v>
-      </c>
-      <c r="D4" s="2">
+        <v>0.86273250561640002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.62607840871486498</v>
+      </c>
+      <c r="D4">
+        <v>0.78558700108762947</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.20699999999999999</v>
       </c>
-      <c r="E4">
-        <v>0.78558700108762947</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-1</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="23">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="D5" s="2">
+        <v>0.93334885273478496</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.92040242413066298</v>
+      </c>
+      <c r="D5">
+        <v>0.93216753464366131</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.19400000000000001</v>
       </c>
-      <c r="E5">
-        <v>0.93216753464366131</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-1</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="23">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="D6" s="2">
+        <v>0.95739447383228804</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.92794208014233903</v>
+      </c>
+      <c r="D6">
+        <v>0.94422368067223927</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.38200000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.94422368067223927</v>
       </c>
       <c r="F6">
         <v>0.37884872804789205</v>
